--- a/documentation/LagIncreaseDo/LagIncreaseOc.xlsx
+++ b/documentation/LagIncreaseDo/LagIncreaseOc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomoponzuoli/Desktop/unifi_phd/documentation/LagIncreaseDo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattiamarilli/Progetti/unifi_phd/documentation/LagIncreaseDo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12BD19C-9CC1-6B4E-9019-9E7932CCD050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87500A5-B157-9E4E-B156-428A0C7C7E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" activeTab="9" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15780" xr2:uid="{9C1D837C-A722-4248-A86A-CE69ED4B7649}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Foglio9" sheetId="9" r:id="rId9"/>
     <sheet name="Foglio10" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="21">
   <si>
     <t>Insert student</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Get all faculty members</t>
+  </si>
+  <si>
+    <t>Media</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DA2B74-2347-0347-86D2-F6AB4B814569}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,7 +470,7 @@
     <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,8 +504,12 @@
       <c r="K1">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1">
+        <f>AVERAGE(B1:K1)</f>
+        <v>106.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -536,8 +543,12 @@
       <c r="K2">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -571,8 +582,12 @@
       <c r="K3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -606,8 +621,12 @@
       <c r="K4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -641,8 +660,12 @@
       <c r="K5">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -676,8 +699,12 @@
       <c r="K6">
         <v>101</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -711,8 +738,12 @@
       <c r="K7">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -746,8 +777,12 @@
       <c r="K8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -781,8 +816,12 @@
       <c r="K9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -816,8 +855,12 @@
       <c r="K10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -851,8 +894,12 @@
       <c r="K11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -886,8 +933,12 @@
       <c r="K12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -921,8 +972,12 @@
       <c r="K13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -956,8 +1011,12 @@
       <c r="K14">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -991,8 +1050,12 @@
       <c r="K15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1026,8 +1089,12 @@
       <c r="K16">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1061,8 +1128,12 @@
       <c r="K17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1096,8 +1167,12 @@
       <c r="K18">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1131,8 +1206,12 @@
       <c r="K19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1165,6 +1244,19 @@
       </c>
       <c r="K20">
         <v>14</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(L1:L20)</f>
+        <v>23.91</v>
       </c>
     </row>
   </sheetData>
@@ -1174,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF85802-C064-7E4C-90D3-E414AAA07F75}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1185,7 +1277,7 @@
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1219,8 +1311,12 @@
       <c r="K1">
         <v>2531</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1">
+        <f>AVERAGE(B1:K1)</f>
+        <v>2204.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1254,8 +1350,12 @@
       <c r="K2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1289,8 +1389,12 @@
       <c r="K3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1324,8 +1428,12 @@
       <c r="K4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1359,8 +1467,12 @@
       <c r="K5">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1394,8 +1506,12 @@
       <c r="K6">
         <v>2468</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1926.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1429,8 +1545,12 @@
       <c r="K7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1464,8 +1584,12 @@
       <c r="K8">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1499,8 +1623,12 @@
       <c r="K9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1534,8 +1662,12 @@
       <c r="K10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1569,8 +1701,12 @@
       <c r="K11">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1604,8 +1740,12 @@
       <c r="K12">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1639,8 +1779,12 @@
       <c r="K13">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1674,8 +1818,12 @@
       <c r="K14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1709,8 +1857,12 @@
       <c r="K15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1744,8 +1896,12 @@
       <c r="K16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1779,8 +1935,12 @@
       <c r="K17">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1814,8 +1974,12 @@
       <c r="K18">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1849,8 +2013,12 @@
       <c r="K19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1883,6 +2051,19 @@
       </c>
       <c r="K20">
         <v>16</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(L1:L20)</f>
+        <v>222.215</v>
       </c>
     </row>
   </sheetData>
@@ -1892,10 +2073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72334DA6-81EA-704C-A917-9AB8D3530A6B}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L1" sqref="L1:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1903,7 +2084,7 @@
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1937,8 +2118,12 @@
       <c r="K1">
         <v>190</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1">
+        <f>AVERAGE(B1:K1)</f>
+        <v>183.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1972,8 +2157,12 @@
       <c r="K2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2007,8 +2196,12 @@
       <c r="K3">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2042,8 +2235,12 @@
       <c r="K4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2077,8 +2274,12 @@
       <c r="K5">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2112,8 +2313,12 @@
       <c r="K6">
         <v>172</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>174.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2147,8 +2352,12 @@
       <c r="K7">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2182,8 +2391,12 @@
       <c r="K8">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2217,8 +2430,12 @@
       <c r="K9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2252,8 +2469,12 @@
       <c r="K10">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2287,8 +2508,12 @@
       <c r="K11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2322,8 +2547,12 @@
       <c r="K12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2357,8 +2586,12 @@
       <c r="K13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2392,8 +2625,12 @@
       <c r="K14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2427,8 +2664,12 @@
       <c r="K15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2462,8 +2703,12 @@
       <c r="K16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2497,8 +2742,12 @@
       <c r="K17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2532,8 +2781,12 @@
       <c r="K18">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2567,8 +2820,12 @@
       <c r="K19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2601,6 +2858,19 @@
       </c>
       <c r="K20">
         <v>9</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(L1:L20)</f>
+        <v>32.474999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -2610,10 +2880,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B62DC63-EE63-3644-B9B2-2B7B29156C0B}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="L1" sqref="L1:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2621,7 +2891,7 @@
     <col min="1" max="1" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2655,8 +2925,12 @@
       <c r="K1">
         <v>287</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1">
+        <f>AVERAGE(B1:K1)</f>
+        <v>256.89999999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2690,8 +2964,12 @@
       <c r="K2">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2725,8 +3003,12 @@
       <c r="K3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2760,8 +3042,12 @@
       <c r="K4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2795,8 +3081,12 @@
       <c r="K5">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2830,8 +3120,12 @@
       <c r="K6">
         <v>302</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>260.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2865,8 +3159,12 @@
       <c r="K7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2900,8 +3198,12 @@
       <c r="K8">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2935,8 +3237,12 @@
       <c r="K9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2970,8 +3276,12 @@
       <c r="K10">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3005,8 +3315,12 @@
       <c r="K11">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3040,8 +3354,12 @@
       <c r="K12">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3075,8 +3393,12 @@
       <c r="K13">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3110,8 +3432,12 @@
       <c r="K14">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3145,8 +3471,12 @@
       <c r="K15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3180,8 +3510,12 @@
       <c r="K16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3215,8 +3549,12 @@
       <c r="K17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3250,8 +3588,12 @@
       <c r="K18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3285,8 +3627,12 @@
       <c r="K19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3319,6 +3665,19 @@
       </c>
       <c r="K20">
         <v>17</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(L1:L20)</f>
+        <v>41.615000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -3328,10 +3687,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6036B0-A6B2-054C-A0FA-BFF38CD97704}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="L1" sqref="L1:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3339,7 +3698,7 @@
     <col min="1" max="1" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3373,8 +3732,12 @@
       <c r="K1">
         <v>292</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1">
+        <f>AVERAGE(B1:K1)</f>
+        <v>295.60000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3408,8 +3771,12 @@
       <c r="K2">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3443,8 +3810,12 @@
       <c r="K3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3478,8 +3849,12 @@
       <c r="K4">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3513,8 +3888,12 @@
       <c r="K5">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3548,8 +3927,12 @@
       <c r="K6">
         <v>310</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>291.89999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3583,8 +3966,12 @@
       <c r="K7">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3618,8 +4005,12 @@
       <c r="K8">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3653,8 +4044,12 @@
       <c r="K9">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3688,8 +4083,12 @@
       <c r="K10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3723,8 +4122,12 @@
       <c r="K11">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3758,8 +4161,12 @@
       <c r="K12">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3793,8 +4200,12 @@
       <c r="K13">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3828,8 +4239,12 @@
       <c r="K14">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3863,8 +4278,12 @@
       <c r="K15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3898,8 +4317,12 @@
       <c r="K16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3933,8 +4356,12 @@
       <c r="K17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3968,8 +4395,12 @@
       <c r="K18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4003,8 +4434,12 @@
       <c r="K19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4037,6 +4472,19 @@
       </c>
       <c r="K20">
         <v>20</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(L1:L20)</f>
+        <v>43.794999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -4046,10 +4494,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F18A12-24DF-454F-85C6-4E74DCED35F2}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="L1" sqref="L1:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4057,7 +4505,7 @@
     <col min="1" max="1" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4091,8 +4539,12 @@
       <c r="K1">
         <v>491</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1">
+        <f>AVERAGE(B1:K1)</f>
+        <v>475.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4126,8 +4578,12 @@
       <c r="K2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4161,8 +4617,12 @@
       <c r="K3">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4196,8 +4656,12 @@
       <c r="K4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4231,8 +4695,12 @@
       <c r="K5">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4266,8 +4734,12 @@
       <c r="K6">
         <v>428</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>455.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4301,8 +4773,12 @@
       <c r="K7">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4336,8 +4812,12 @@
       <c r="K8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4371,8 +4851,12 @@
       <c r="K9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4406,8 +4890,12 @@
       <c r="K10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4441,8 +4929,12 @@
       <c r="K11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4476,8 +4968,12 @@
       <c r="K12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4511,8 +5007,12 @@
       <c r="K13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4546,8 +5046,12 @@
       <c r="K14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4581,8 +5085,12 @@
       <c r="K15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4616,8 +5124,12 @@
       <c r="K16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4651,8 +5163,12 @@
       <c r="K17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4686,8 +5202,12 @@
       <c r="K18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4721,8 +5241,12 @@
       <c r="K19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4755,6 +5279,19 @@
       </c>
       <c r="K20">
         <v>8</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(L1:L20)</f>
+        <v>60.069999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -4764,10 +5301,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6F96E0-F5BB-854C-A442-6ABC39B5D109}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L1" sqref="L1:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4775,7 +5312,7 @@
     <col min="1" max="1" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4809,8 +5346,12 @@
       <c r="K1">
         <v>789</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1">
+        <f>AVERAGE(B1:K1)</f>
+        <v>708.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4844,8 +5385,12 @@
       <c r="K2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4879,8 +5424,12 @@
       <c r="K3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4914,8 +5463,12 @@
       <c r="K4">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4949,8 +5502,12 @@
       <c r="K5">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4984,8 +5541,12 @@
       <c r="K6">
         <v>671</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>738.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5019,8 +5580,12 @@
       <c r="K7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5054,8 +5619,12 @@
       <c r="K8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5089,8 +5658,12 @@
       <c r="K9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5124,8 +5697,12 @@
       <c r="K10">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5159,8 +5736,12 @@
       <c r="K11">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5194,8 +5775,12 @@
       <c r="K12">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5229,8 +5814,12 @@
       <c r="K13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5264,8 +5853,12 @@
       <c r="K14">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5299,8 +5892,12 @@
       <c r="K15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5334,8 +5931,12 @@
       <c r="K16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5369,8 +5970,12 @@
       <c r="K17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5404,8 +6009,12 @@
       <c r="K18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5439,8 +6048,12 @@
       <c r="K19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5473,6 +6086,19 @@
       </c>
       <c r="K20">
         <v>9</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(L1:L20)</f>
+        <v>86.64500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5482,10 +6108,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7627A29-C404-8444-9DA4-15D922FC4074}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L1" sqref="L1:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5493,7 +6119,7 @@
     <col min="1" max="1" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5527,8 +6153,12 @@
       <c r="K1">
         <v>819</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1">
+        <f>AVERAGE(B1:K1)</f>
+        <v>898.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5562,8 +6192,12 @@
       <c r="K2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5597,8 +6231,12 @@
       <c r="K3">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5632,8 +6270,12 @@
       <c r="K4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5667,8 +6309,12 @@
       <c r="K5">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -5702,8 +6348,12 @@
       <c r="K6">
         <v>994</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>919.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -5737,8 +6387,12 @@
       <c r="K7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5772,8 +6426,12 @@
       <c r="K8">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5807,8 +6465,12 @@
       <c r="K9">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5842,8 +6504,12 @@
       <c r="K10">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -5877,8 +6543,12 @@
       <c r="K11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5912,8 +6582,12 @@
       <c r="K12">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5947,8 +6621,12 @@
       <c r="K13">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5982,8 +6660,12 @@
       <c r="K14">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6017,8 +6699,12 @@
       <c r="K15">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -6052,8 +6738,12 @@
       <c r="K16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -6087,8 +6777,12 @@
       <c r="K17">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -6122,8 +6816,12 @@
       <c r="K18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -6157,8 +6855,12 @@
       <c r="K19">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -6191,6 +6893,19 @@
       </c>
       <c r="K20">
         <v>19</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(L1:L20)</f>
+        <v>105.28500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6200,10 +6915,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DB4E3A-26CA-0644-A279-A4FF32DC80B8}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L1" sqref="L1:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6211,7 +6926,7 @@
     <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6245,8 +6960,12 @@
       <c r="K1">
         <v>1357</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1">
+        <f>AVERAGE(B1:K1)</f>
+        <v>1343.5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6280,8 +6999,12 @@
       <c r="K2">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -6315,8 +7038,12 @@
       <c r="K3">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6350,8 +7077,12 @@
       <c r="K4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6385,8 +7116,12 @@
       <c r="K5">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -6420,8 +7155,12 @@
       <c r="K6">
         <v>1318</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1395.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6455,8 +7194,12 @@
       <c r="K7">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -6490,8 +7233,12 @@
       <c r="K8">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -6525,8 +7272,12 @@
       <c r="K9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -6560,8 +7311,12 @@
       <c r="K10">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -6595,8 +7350,12 @@
       <c r="K11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -6630,8 +7389,12 @@
       <c r="K12">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -6665,8 +7428,12 @@
       <c r="K13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6700,8 +7467,12 @@
       <c r="K14">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -6735,8 +7506,12 @@
       <c r="K15">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -6770,8 +7545,12 @@
       <c r="K16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -6805,8 +7584,12 @@
       <c r="K17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -6840,8 +7623,12 @@
       <c r="K18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -6875,8 +7662,12 @@
       <c r="K19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -6909,6 +7700,19 @@
       </c>
       <c r="K20">
         <v>17</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(L1:L20)</f>
+        <v>153.10499999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6918,10 +7722,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19D7DDA-A10A-C24D-BA4B-3DFB642FB3B0}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6929,7 +7733,7 @@
     <col min="1" max="1" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6963,8 +7767,12 @@
       <c r="K1">
         <v>1420</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1">
+        <f>AVERAGE(B1:K1)</f>
+        <v>1454.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6998,8 +7806,12 @@
       <c r="K2">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <f t="shared" ref="L2:L20" si="0">AVERAGE(B2:K2)</f>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7033,8 +7845,12 @@
       <c r="K3">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7068,8 +7884,12 @@
       <c r="K4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7103,8 +7923,12 @@
       <c r="K5">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -7138,8 +7962,12 @@
       <c r="K6">
         <v>1294</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1411.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -7173,8 +8001,12 @@
       <c r="K7">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7208,8 +8040,12 @@
       <c r="K8">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -7243,8 +8079,12 @@
       <c r="K9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -7278,8 +8118,12 @@
       <c r="K10">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -7313,8 +8157,12 @@
       <c r="K11">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -7348,8 +8196,12 @@
       <c r="K12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -7383,8 +8235,12 @@
       <c r="K13">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -7418,8 +8274,12 @@
       <c r="K14">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -7453,8 +8313,12 @@
       <c r="K15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -7488,8 +8352,12 @@
       <c r="K16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -7523,8 +8391,12 @@
       <c r="K17">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -7558,8 +8430,12 @@
       <c r="K18">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -7593,8 +8469,12 @@
       <c r="K19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -7627,6 +8507,19 @@
       </c>
       <c r="K20">
         <v>11</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <f>AVERAGE(L1:L20)</f>
+        <v>158.55500000000001</v>
       </c>
     </row>
   </sheetData>
